--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2593878.863663017</v>
+        <v>2589573.740665947</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.396723986041168</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>145.198658204325</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>141.4261508958552</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>2.252236434188546</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>58.54164584308801</v>
+        <v>227.825211920659</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.7784027054204</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.03337030643125</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>164.6615622377254</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.85958240663173</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589165</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>271.1106163594384</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.06194754708421</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>59.17799190170827</v>
+        <v>20.27697994470974</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.795970478954221</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.7034957973313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>89.45659128798552</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.31367585848648</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.7457933526579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>126.6035148834796</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>12.76515480631733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>71.76895293959859</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D28" t="n">
-        <v>135.4684761590179</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,10 +2848,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>63.38272884730993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.8146543619976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.57619040703568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>26.05480806223585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>134.3391137331265</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.59746731481</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>210.8831693494277</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294312</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678535</v>
@@ -4336,7 +4336,7 @@
         <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644759</v>
@@ -4345,37 +4345,37 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652796</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487948</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487948</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487948</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487948</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312948</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.59746731481</v>
+        <v>400.3029543659123</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652796</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>338.5836129486913</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>179.3461579432358</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>32.81159997012074</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296059</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296059</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296059</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652796</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652796</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652796</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652796</v>
+        <v>487.5180226099425</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>498.8004264087886</v>
+        <v>284.005674899</v>
       </c>
       <c r="C5" t="n">
-        <v>439.6674508097097</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="D5" t="n">
-        <v>439.6674508097097</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146551</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226204</v>
+        <v>46.93369746226215</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746969</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603075</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709163</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079237</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332755</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.043480974316</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="U5" t="n">
-        <v>1262.40551664568</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="V5" t="n">
-        <v>1262.40551664568</v>
+        <v>1396.839928494316</v>
       </c>
       <c r="W5" t="n">
-        <v>1262.40551664568</v>
+        <v>1044.071273224202</v>
       </c>
       <c r="X5" t="n">
-        <v>888.9397583846003</v>
+        <v>670.6055149631218</v>
       </c>
       <c r="Y5" t="n">
-        <v>498.8004264087886</v>
+        <v>670.6055149631218</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>691.8688234447991</v>
+        <v>540.877396976121</v>
       </c>
       <c r="C6" t="n">
-        <v>517.4157941636721</v>
+        <v>366.424367694994</v>
       </c>
       <c r="D6" t="n">
-        <v>415.6194277945606</v>
+        <v>217.4899580337427</v>
       </c>
       <c r="E6" t="n">
-        <v>415.6194277945606</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>269.0848698214456</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354054</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787514</v>
+        <v>61.66788464787551</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189972</v>
+        <v>399.8722171189986</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223492</v>
+        <v>668.6238185223513</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352496</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902143</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1303.087768902143</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1303.087768902143</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.9356606704</v>
+        <v>1210.726552674809</v>
       </c>
       <c r="W6" t="n">
-        <v>1067.9356606704</v>
+        <v>956.4891959466077</v>
       </c>
       <c r="X6" t="n">
-        <v>860.0841604648672</v>
+        <v>748.6376957410748</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.0841604648672</v>
+        <v>540.877396976121</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.85056379820381</v>
+        <v>203.4942392446646</v>
       </c>
       <c r="C7" t="n">
-        <v>77.85056379820381</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="D7" t="n">
-        <v>77.85056379820381</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574671</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.1299861584119</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934708</v>
+        <v>342.3101561934726</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857994</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040907</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040907</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040907</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040907</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040907</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="V7" t="n">
-        <v>77.85056379820381</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="W7" t="n">
-        <v>77.85056379820381</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="X7" t="n">
-        <v>77.85056379820381</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.85056379820381</v>
+        <v>369.8190495858015</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>545.2988805405388</v>
+        <v>1442.225413373464</v>
       </c>
       <c r="C8" t="n">
-        <v>545.2988805405388</v>
+        <v>1073.262896433053</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405388</v>
+        <v>714.9971978263022</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405388</v>
+        <v>329.208945228058</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>55.35983779428182</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301913</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.882102109618</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="T8" t="n">
-        <v>1906.708104261534</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="U8" t="n">
-        <v>1653.100939924043</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="V8" t="n">
-        <v>1322.038052580472</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="W8" t="n">
-        <v>1322.038052580472</v>
+        <v>1815.691171634544</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.038052580472</v>
+        <v>1442.225413373464</v>
       </c>
       <c r="Y8" t="n">
-        <v>931.8987206046606</v>
+        <v>1442.225413373464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.1928043853488</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C9" t="n">
-        <v>548.1928043853488</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D9" t="n">
-        <v>399.2583947240976</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E9" t="n">
-        <v>240.0209397186421</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F9" t="n">
-        <v>240.0209397186421</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="G9" t="n">
-        <v>103.144945933758</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1132.019940375904</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>924.1684401703708</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>716.4081414054169</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193.4858359504288</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217340046</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036402</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036402</v>
       </c>
       <c r="Y10" t="n">
-        <v>375.1343007806685</v>
+        <v>230.8721770036402</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.055080985707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.453616008648</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.378389352846</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.693901146959</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.276731109998</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1044.287180211981</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.4946010684509</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>452.7119585201409</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5600,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1849.578742244367</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151475</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872407</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588917</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445387</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3012.408157764291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3007.624207651098</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>3007.624207651098</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>2857.507568238763</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2857.507568238763</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2710.617620740853</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2543.421521455733</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2401.709690297931</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3410.065251624868</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3189.272672481338</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,7 +6733,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569135</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329705</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7851,7 +7851,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.15888173022684</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>31.77834493961095</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>73.65209508333265</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D28" t="n">
-        <v>13.14699685919447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.88310747125561</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.7699989900972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.0084629450591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>84.24553961896831</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253116</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231938</v>
+        <v>115410.0540231936</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881948</v>
+        <v>62913.63765881979</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197509</v>
+        <v>27875.25362197521</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26438,19 +26438,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936811</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-270045.8518751622</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.8962204005</v>
+        <v>103200.896220399</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234629</v>
+        <v>282021.2899234634</v>
       </c>
       <c r="E6" t="n">
-        <v>-72285.09765304709</v>
+        <v>-72632.47690740261</v>
       </c>
       <c r="F6" t="n">
-        <v>529158.1099212181</v>
+        <v>528810.7306668611</v>
       </c>
       <c r="G6" t="n">
-        <v>529158.1099212182</v>
+        <v>528810.7306668612</v>
       </c>
       <c r="H6" t="n">
-        <v>529158.1099212181</v>
+        <v>528810.7306668611</v>
       </c>
       <c r="I6" t="n">
-        <v>529158.1099212182</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="J6" t="n">
-        <v>480093.1651926737</v>
+        <v>479745.7859383168</v>
       </c>
       <c r="K6" t="n">
-        <v>466244.472262399</v>
+        <v>465897.0930080414</v>
       </c>
       <c r="L6" t="n">
-        <v>501282.856299243</v>
+        <v>500935.4770448857</v>
       </c>
       <c r="M6" t="n">
-        <v>372011.7293696202</v>
+        <v>371664.3501152635</v>
       </c>
       <c r="N6" t="n">
-        <v>529158.1099212181</v>
+        <v>528810.7306668611</v>
       </c>
       <c r="O6" t="n">
-        <v>529158.1099212182</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="P6" t="n">
-        <v>529158.109921218</v>
+        <v>528810.7306668612</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950609</v>
+        <v>758.8996292950621</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594701</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821564</v>
+        <v>210.4296883821579</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262323</v>
+        <v>94.81103524262301</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.139252766693</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666934</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.139252766693</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>310.4971021201811</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988688</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>224.532442474144</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>31.28234809246052</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,16 +27472,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>133.9115529315868</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,7 +27517,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.049135239016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976608</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>306.7312459279195</v>
+        <v>137.4476798503485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760051</v>
+        <v>92.85788772760033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425926</v>
+        <v>23.94240680425895</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.66666285921835</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>121.6117101489697</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074804</v>
+        <v>44.33060630074787</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>15.17041794421186</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>103.5743802399374</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304058</v>
+        <v>30.24193919304042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589146</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27833,7 +27833,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>135.7654293822731</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.75136116216623</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>35.32282136014688</v>
+        <v>74.22383331714538</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>12.3583388602849</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>74.88115755476352</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.194312413142801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520272</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511772</v>
+        <v>481.447450251178</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968103</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610692</v>
+        <v>544.3712888610701</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191485</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486096</v>
+        <v>438.7164434860967</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.52130774898988</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506248</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721892</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658088</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468662</v>
+        <v>424.5470671468669</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.3776244374456</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378874</v>
+        <v>6.579516597378886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635553</v>
+        <v>96.75348224635569</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054715</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830795</v>
+        <v>5.847259438830805</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>710.7237876039896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198423</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.68103528119</v>
+        <v>245.6810352811908</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695376</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644782</v>
+        <v>314.9582252644792</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974618</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.3836649809268</v>
+        <v>27.38366498092705</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437898</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635336</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872807</v>
+        <v>68.38629016872841</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554481</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501461</v>
+        <v>68.57507023501495</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230858</v>
+        <v>75.59399159230892</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761545</v>
+        <v>81.73343028761579</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756918</v>
+        <v>54.97578017569211</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235214</v>
+        <v>27.78676100235242</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>568.5897536819714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2589573.740665947</v>
+        <v>2591334.270968731</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663197</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>6.396723986041168</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>158.9209832102734</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>83.41747001683163</v>
       </c>
       <c r="G3" t="n">
-        <v>2.252236434188546</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>227.825211920659</v>
+        <v>357.2288011156916</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425926</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>36.03337030643125</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.3208508493752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074804</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>126.9885121280566</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.6615622377254</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19.86486348319838</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>271.1106163594384</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>264.2345706177269</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470974</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.795970478954221</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>105.1360055454815</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>89.45659128798552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507923219</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>166.5507736588103</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.3391137331265</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>210.8831693494277</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294312</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823969</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823969</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823969</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823969</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823969</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659123</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.5180226099425</v>
+        <v>581.8870116452117</v>
       </c>
       <c r="C3" t="n">
-        <v>487.5180226099425</v>
+        <v>407.4339823640847</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5836129486913</v>
+        <v>258.4995727028335</v>
       </c>
       <c r="E3" t="n">
-        <v>179.3461579432358</v>
+        <v>99.26211769737796</v>
       </c>
       <c r="F3" t="n">
-        <v>32.81159997012074</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296059</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296059</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296059</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099425</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099425</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099425</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.5180226099425</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.005674899</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="C5" t="n">
-        <v>53.87919821146562</v>
+        <v>1201.973553456864</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146562</v>
+        <v>843.7078548501138</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146562</v>
+        <v>457.9196022518696</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226215</v>
+        <v>46.93369746226205</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017213</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746969</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603077</v>
+        <v>521.204941603075</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709192</v>
+        <v>823.5081935709163</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.31683658275</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079237</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332755</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837886</v>
+        <v>1703.718566540649</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837886</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837886</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837886</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.839928494316</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.071273224202</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="X5" t="n">
-        <v>670.6055149631218</v>
+        <v>1562.810726300997</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.6055149631218</v>
+        <v>1562.810726300997</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.877396976121</v>
+        <v>471.2302857711608</v>
       </c>
       <c r="C6" t="n">
-        <v>366.424367694994</v>
+        <v>471.2302857711608</v>
       </c>
       <c r="D6" t="n">
-        <v>217.4899580337427</v>
+        <v>322.2958761099095</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>322.2958761099095</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675773</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675773</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675773</v>
+        <v>78.31649151814671</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787551</v>
+        <v>61.66788464787515</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806067</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189986</v>
+        <v>399.8722171189972</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223513</v>
+        <v>668.6238185223492</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352496</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703771</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.309378699367</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1062.768760419121</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906552</v>
+        <v>834.6536183746779</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674809</v>
+        <v>599.5015101429351</v>
       </c>
       <c r="W6" t="n">
-        <v>956.4891959466077</v>
+        <v>471.2302857711608</v>
       </c>
       <c r="X6" t="n">
-        <v>748.6376957410748</v>
+        <v>471.2302857711608</v>
       </c>
       <c r="Y6" t="n">
-        <v>540.877396976121</v>
+        <v>471.2302857711608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4942392446646</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675773</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675773</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675773</v>
+        <v>349.7535309159021</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675773</v>
+        <v>202.8635834179917</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675762</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574708</v>
+        <v>64.24066662574673</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584119</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347977</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195373</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934726</v>
+        <v>342.3101561934708</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495857995</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1442.225413373464</v>
+        <v>1175.321806688892</v>
       </c>
       <c r="C8" t="n">
-        <v>1073.262896433053</v>
+        <v>806.35928974848</v>
       </c>
       <c r="D8" t="n">
-        <v>714.9971978263022</v>
+        <v>448.0935911417295</v>
       </c>
       <c r="E8" t="n">
-        <v>329.208945228058</v>
+        <v>62.30533854348529</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428182</v>
@@ -4804,13 +4804,13 @@
         <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771189</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578733</v>
@@ -4849,7 +4849,7 @@
         <v>1442.225413373464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1442.225413373464</v>
+        <v>1175.321806688892</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829912</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018642</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406129</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351574</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809316</v>
@@ -4916,19 +4916,19 @@
         <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101748</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373546</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168013</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030593</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.22371217340046</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="C10" t="n">
-        <v>49.22371217340046</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="D10" t="n">
-        <v>49.22371217340046</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E10" t="n">
-        <v>49.22371217340046</v>
+        <v>61.70688273934481</v>
       </c>
       <c r="F10" t="n">
-        <v>49.22371217340046</v>
+        <v>61.70688273934481</v>
       </c>
       <c r="G10" t="n">
-        <v>49.22371217340046</v>
+        <v>61.70688273934481</v>
       </c>
       <c r="H10" t="n">
-        <v>49.22371217340046</v>
+        <v>61.70688273934481</v>
       </c>
       <c r="I10" t="n">
-        <v>49.22371217340046</v>
+        <v>61.70688273934481</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809316</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406008</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="W10" t="n">
-        <v>230.8721770036402</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="X10" t="n">
-        <v>230.8721770036402</v>
+        <v>497.4664265514539</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.8721770036402</v>
+        <v>391.2684411519776</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5044,16 +5044,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>869.9745311434712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7630,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>847.6442739835331</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.15888173022684</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6786642641544</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.7088678813209</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.6337007304339</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>645717.279752005</v>
@@ -26328,34 +26328,34 @@
         <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>270592.3620253114</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231936</v>
+        <v>115410.0540231951</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742639</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881979</v>
+        <v>62913.63765881953</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197521</v>
+        <v>27875.25362197543</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515976</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263465</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26438,19 +26438,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936812</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270045.8518751622</v>
+        <v>-270045.8518751625</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.896220399</v>
+        <v>103200.8962204004</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234634</v>
+        <v>282021.2899234617</v>
       </c>
       <c r="E6" t="n">
-        <v>-72632.47690740261</v>
+        <v>-72319.83557848138</v>
       </c>
       <c r="F6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="G6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="H6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="I6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="J6" t="n">
-        <v>479745.7859383168</v>
+        <v>480058.4272672374</v>
       </c>
       <c r="K6" t="n">
-        <v>465897.0930080414</v>
+        <v>466209.7343369627</v>
       </c>
       <c r="L6" t="n">
-        <v>500935.4770448857</v>
+        <v>501248.1183738067</v>
       </c>
       <c r="M6" t="n">
-        <v>371664.3501152635</v>
+        <v>371976.9914441847</v>
       </c>
       <c r="N6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="O6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="P6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957824</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950621</v>
+        <v>758.8996292950609</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376851</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594703</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261646</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821579</v>
+        <v>210.4296883821563</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262301</v>
+        <v>94.81103524262426</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039886</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931503</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766693</v>
+        <v>110.1392527666943</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734838</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666943</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734836</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931503</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766693</v>
+        <v>110.1392527666943</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734838</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637383</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>310.4971021201811</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>168.8312752598615</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,19 +27469,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>61.65174237655225</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9115529315868</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,7 +27517,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310554</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346027</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976608</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>137.4476798503485</v>
+        <v>8.044090655315927</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760033</v>
+        <v>92.85788772760051</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425895</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,13 +27675,13 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121.6117101489697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937511</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074787</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>124.706471032863</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.17041794421186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5690991633708</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304042</v>
+        <v>30.24193919304058</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589146</v>
+        <v>36.91115760589165</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7654293822731</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.0033680383267</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714538</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904878</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>205.5435940233588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>12.3583388602849</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>113.4486478066133</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429367</v>
+        <v>31.24454604429362</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520272</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251178</v>
+        <v>481.4474502511772</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968103</v>
+        <v>535.7030533968094</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610701</v>
+        <v>544.3712888610692</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191493</v>
+        <v>514.0343715191485</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860967</v>
+        <v>438.716443486096</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634653</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898988</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868535</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062489</v>
+        <v>56.2015291506248</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721892</v>
+        <v>354.4276051721886</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658088</v>
+        <v>413.6002979658081</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468669</v>
+        <v>424.5470671468662</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374456</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872487</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378886</v>
+        <v>6.579516597378874</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635569</v>
+        <v>96.75348224635553</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054715</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391198</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830805</v>
+        <v>5.847259438830795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656356</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198423</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070466</v>
+        <v>167.990063407046</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811908</v>
+        <v>245.68103528119</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695376</v>
+        <v>305.3568201695367</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644792</v>
+        <v>314.9582252644782</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974626</v>
+        <v>283.9361600974618</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308264</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092705</v>
+        <v>27.3836649809268</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392315</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437898</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635336</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930005</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872841</v>
+        <v>68.38629016872807</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554481</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501495</v>
+        <v>68.57507023501461</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230892</v>
+        <v>75.59399159230858</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761579</v>
+        <v>81.73343028761545</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569211</v>
+        <v>54.9757801756918</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235242</v>
+        <v>27.78676100235214</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
